--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="127">
   <si>
     <t>sprint No.</t>
   </si>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>Abdelrahman</t>
+  </si>
+  <si>
+    <t>malak</t>
+  </si>
+  <si>
+    <t>abdulrahman</t>
+  </si>
+  <si>
+    <t>khalid</t>
+  </si>
+  <si>
+    <t>mennah</t>
+  </si>
+  <si>
+    <t>abdulhamid</t>
+  </si>
+  <si>
+    <t>farah</t>
+  </si>
+  <si>
+    <t>abdulhrahman</t>
   </si>
 </sst>
 </file>
@@ -887,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1211,9 @@
       <c r="D17" s="9">
         <v>43163</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1206,7 +1229,9 @@
       <c r="D18" s="9">
         <v>43163</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1247,9 @@
       <c r="D19" s="9">
         <v>43164</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="F19" s="8" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1265,9 @@
       <c r="D20" s="9">
         <v>43164</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="F20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1283,9 @@
       <c r="D21" s="9">
         <v>43164</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1270,7 +1301,9 @@
       <c r="D22" s="9">
         <v>43165</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1286,7 +1319,9 @@
       <c r="D23" s="10">
         <v>43165</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1361,9 @@
       <c r="D26" s="10">
         <v>43165</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1342,7 +1379,9 @@
       <c r="D27" s="10">
         <v>43165</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1397,9 @@
       <c r="D28" s="10">
         <v>43166</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F28" s="8" t="s">
         <v>33</v>
       </c>
@@ -1374,7 +1415,9 @@
       <c r="D29" s="10">
         <v>43166</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F29" s="8" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1433,9 @@
       <c r="D30" s="10">
         <v>43167</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F30" s="8" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1451,9 @@
       <c r="D31" s="10">
         <v>43167</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1422,7 +1469,9 @@
       <c r="D32" s="10">
         <v>43167</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1527,9 @@
       <c r="D36" s="10">
         <v>43171</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F36" s="8" t="s">
         <v>33</v>
       </c>
@@ -1495,7 +1546,9 @@
       <c r="D37" s="10">
         <v>43171</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F37" s="8" t="s">
         <v>22</v>
       </c>
@@ -1511,7 +1564,9 @@
       <c r="D38" s="10">
         <v>43172</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F38" s="8" t="s">
         <v>50</v>
       </c>
@@ -1527,7 +1582,9 @@
       <c r="D39" s="10">
         <v>43172</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F39" s="8" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1600,9 @@
       <c r="D40" s="10">
         <v>43173</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1559,7 +1618,9 @@
       <c r="D41" s="10">
         <v>43173</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F41" s="8" t="s">
         <v>23</v>
       </c>
@@ -1575,7 +1636,9 @@
       <c r="D42" s="10">
         <v>43174</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F42" s="8" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1654,9 @@
       <c r="D43" s="10">
         <v>43175</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F43" s="8" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1672,9 @@
       <c r="D44" s="10">
         <v>43176</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F44" s="8" t="s">
         <v>23</v>
       </c>
@@ -1647,7 +1714,9 @@
       <c r="D47" s="10">
         <v>43176</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F47" s="8" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1732,9 @@
       <c r="D48" s="10">
         <v>43177</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F48" s="8" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1750,9 @@
       <c r="D49" s="10">
         <v>43177</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F49" s="8" t="s">
         <v>50</v>
       </c>
@@ -1695,7 +1768,9 @@
       <c r="D50" s="10">
         <v>43178</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F50" s="8" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1786,9 @@
       <c r="D51" s="10">
         <v>43179</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="F51" s="8" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1804,9 @@
       <c r="D52" s="10">
         <v>43180</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F52" s="8" t="s">
         <v>51</v>
       </c>
@@ -1743,7 +1822,9 @@
       <c r="D53" s="10">
         <v>43180</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F53" s="8" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1840,9 @@
       <c r="D54" s="10">
         <v>43182</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1858,9 @@
       <c r="D55" s="10">
         <v>43183</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F55" s="8" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1876,9 @@
       <c r="D56" s="10">
         <v>43185</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F56" s="8" t="s">
         <v>51</v>
       </c>

--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
   <si>
     <t>sprint No.</t>
   </si>
@@ -96,18 +96,12 @@
     <t>registration view</t>
   </si>
   <si>
-    <t>scetsh and wireframe</t>
-  </si>
-  <si>
     <t>login button test</t>
   </si>
   <si>
     <t xml:space="preserve">signup button implementation </t>
   </si>
   <si>
-    <t>sign up view</t>
-  </si>
-  <si>
     <t>login button backend imp</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>sports view</t>
   </si>
   <si>
-    <t>scetch and wireframe</t>
-  </si>
-  <si>
     <t>implementation design</t>
   </si>
   <si>
@@ -400,6 +391,12 @@
   </si>
   <si>
     <t>abdulhrahman</t>
+  </si>
+  <si>
+    <t>sign in view</t>
+  </si>
+  <si>
+    <t>sketch and wireframe</t>
   </si>
 </sst>
 </file>
@@ -908,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -960,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="7">
         <v>43160</v>
@@ -969,7 +966,7 @@
         <v>43134</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>14</v>
@@ -978,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -1079,7 +1076,7 @@
         <v>43163</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -1212,16 +1209,16 @@
         <v>43163</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9">
         <v>43163</v>
@@ -1230,7 +1227,7 @@
         <v>43163</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -1248,10 +1245,10 @@
         <v>43164</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1263,7 @@
         <v>43164</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>23</v>
@@ -1275,7 +1272,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="9">
         <v>43164</v>
@@ -1284,16 +1281,16 @@
         <v>43164</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9">
         <v>43164</v>
@@ -1302,7 +1299,7 @@
         <v>43165</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>23</v>
@@ -1311,7 +1308,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10">
         <v>43165</v>
@@ -1320,7 +1317,7 @@
         <v>43165</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>23</v>
@@ -1337,7 +1334,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C25" s="10">
         <v>43165</v>
@@ -1362,16 +1359,16 @@
         <v>43165</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C27" s="10">
         <v>43165</v>
@@ -1380,7 +1377,7 @@
         <v>43165</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>22</v>
@@ -1398,10 +1395,10 @@
         <v>43166</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,7 +1413,7 @@
         <v>43166</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>23</v>
@@ -1425,7 +1422,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="10">
         <v>43166</v>
@@ -1434,16 +1431,16 @@
         <v>43167</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="10">
         <v>43167</v>
@@ -1452,16 +1449,16 @@
         <v>43167</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="10">
         <v>43167</v>
@@ -1470,7 +1467,7 @@
         <v>43167</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>23</v>
@@ -1494,10 +1491,10 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="10">
         <v>43171</v>
@@ -1507,10 +1504,10 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
@@ -1528,17 +1525,17 @@
         <v>43171</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C37" s="10">
         <v>43171</v>
@@ -1547,7 +1544,7 @@
         <v>43171</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>22</v>
@@ -1565,10 +1562,10 @@
         <v>43172</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,16 +1580,16 @@
         <v>43172</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="10">
         <v>43172</v>
@@ -1601,7 +1598,7 @@
         <v>43173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>23</v>
@@ -1610,7 +1607,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="10">
         <v>43173</v>
@@ -1619,7 +1616,7 @@
         <v>43173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>23</v>
@@ -1628,7 +1625,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="10">
         <v>43173</v>
@@ -1637,16 +1634,16 @@
         <v>43174</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="10">
         <v>43174</v>
@@ -1655,16 +1652,16 @@
         <v>43175</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="10">
         <v>43175</v>
@@ -1673,7 +1670,7 @@
         <v>43176</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>23</v>
@@ -1690,7 +1687,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="10">
         <v>43176</v>
@@ -1700,7 +1697,7 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1715,16 +1712,16 @@
         <v>43176</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C48" s="10">
         <v>43176</v>
@@ -1733,7 +1730,7 @@
         <v>43177</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>23</v>
@@ -1751,10 +1748,10 @@
         <v>43177</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1769,16 +1766,16 @@
         <v>43178</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C51" s="10">
         <v>43178</v>
@@ -1787,16 +1784,16 @@
         <v>43179</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="10">
         <v>43179</v>
@@ -1805,16 +1802,16 @@
         <v>43180</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="10">
         <v>43180</v>
@@ -1823,7 +1820,7 @@
         <v>43180</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>22</v>
@@ -1832,7 +1829,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="10">
         <v>43181</v>
@@ -1841,7 +1838,7 @@
         <v>43182</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>22</v>
@@ -1850,7 +1847,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="10">
         <v>43182</v>
@@ -1859,7 +1856,7 @@
         <v>43183</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>23</v>
@@ -1868,7 +1865,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="10">
         <v>43183</v>
@@ -1877,10 +1874,10 @@
         <v>43185</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1901,10 +1898,10 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="10">
         <v>43193</v>
@@ -1914,13 +1911,13 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="I59" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,7 +1939,7 @@
     <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C61" s="10">
         <v>43193</v>
@@ -1968,13 +1965,13 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="10">
         <v>43194</v>
@@ -1984,13 +1981,13 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="10">
         <v>43195</v>
@@ -2006,7 +2003,7 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65" s="10">
         <v>43195</v>
@@ -2022,7 +2019,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66" s="10">
         <v>43196</v>
@@ -2038,7 +2035,7 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="10">
         <v>43196</v>
@@ -2054,7 +2051,7 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C68" s="10">
         <v>43197</v>
@@ -2064,13 +2061,13 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C69" s="10">
         <v>43197</v>
@@ -2086,7 +2083,7 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" s="10">
         <v>43198</v>
@@ -2102,7 +2099,7 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C71" s="10">
         <v>43198</v>
@@ -2118,7 +2115,7 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C72" s="10">
         <v>43198</v>
@@ -2134,7 +2131,7 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C73" s="10">
         <v>43198</v>
@@ -2144,13 +2141,13 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C74" s="10">
         <v>43199</v>
@@ -2160,13 +2157,13 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75" s="10">
         <v>43199</v>
@@ -2182,7 +2179,7 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="10">
         <v>43199</v>
@@ -2192,7 +2189,7 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,7 +2203,7 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C78" s="10">
         <v>43200</v>
@@ -2216,7 +2213,7 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,7 +2235,7 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C80" s="10">
         <v>43200</v>
@@ -2264,13 +2261,13 @@
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C82" s="10">
         <v>43201</v>
@@ -2280,13 +2277,13 @@
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C83" s="10">
         <v>43202</v>
@@ -2296,13 +2293,13 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="10">
         <v>43202</v>
@@ -2312,13 +2309,13 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C85" s="10">
         <v>43202</v>
@@ -2328,13 +2325,13 @@
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C86" s="10">
         <v>43203</v>
@@ -2344,7 +2341,7 @@
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,7 +2357,7 @@
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,7 +2371,7 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C89" s="10">
         <v>43203</v>
@@ -2384,13 +2381,13 @@
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C90" s="10">
         <v>43203</v>
@@ -2406,7 +2403,7 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C91" s="10">
         <v>43204</v>
@@ -2422,7 +2419,7 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C92" s="10">
         <v>43204</v>
@@ -2438,7 +2435,7 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C93" s="10">
         <v>43205</v>
@@ -2448,13 +2445,13 @@
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C94" s="10">
         <v>43205</v>
@@ -2464,7 +2461,7 @@
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,7 +2475,7 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C96" s="10">
         <v>43206</v>
@@ -2488,13 +2485,13 @@
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C97" s="10">
         <v>43207</v>
@@ -2504,7 +2501,7 @@
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2525,10 +2522,10 @@
     </row>
     <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C100" s="10">
         <v>43210</v>
@@ -2538,13 +2535,13 @@
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2563,7 @@
     <row r="102" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C102" s="10">
         <v>43210</v>
@@ -2592,7 +2589,7 @@
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,7 +2611,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C105" s="10">
         <v>43211</v>
@@ -2630,7 +2627,7 @@
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C106" s="10">
         <v>43211</v>
@@ -2646,7 +2643,7 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C107" s="10">
         <v>43211</v>
@@ -2662,7 +2659,7 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C108" s="10">
         <v>43211</v>
@@ -2672,13 +2669,13 @@
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C109" s="10">
         <v>43212</v>
@@ -2688,13 +2685,13 @@
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C110" s="10">
         <v>43212</v>
@@ -2704,13 +2701,13 @@
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C111" s="10">
         <v>43212</v>
@@ -2726,7 +2723,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C112" s="10">
         <v>43213</v>
@@ -2742,7 +2739,7 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C113" s="10">
         <v>43213</v>
@@ -2752,13 +2749,13 @@
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C114" s="10">
         <v>43214</v>
@@ -2774,7 +2771,7 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C115" s="10">
         <v>43214</v>
@@ -2798,7 +2795,7 @@
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C117" s="10">
         <v>43215</v>
@@ -2808,7 +2805,7 @@
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2830,7 +2827,7 @@
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="8" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C119" s="10">
         <v>43215</v>
@@ -2856,7 +2853,7 @@
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,7 +2875,7 @@
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C122" s="10">
         <v>43215</v>
@@ -2888,13 +2885,13 @@
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C123" s="10">
         <v>43216</v>
@@ -2910,7 +2907,7 @@
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C124" s="10">
         <v>43216</v>
@@ -2920,13 +2917,13 @@
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C125" s="10">
         <v>43216</v>
@@ -2942,7 +2939,7 @@
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C126" s="10">
         <v>43217</v>
@@ -2958,7 +2955,7 @@
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C127" s="10">
         <v>43217</v>
@@ -2968,13 +2965,13 @@
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C128" s="10">
         <v>43218</v>
@@ -2984,13 +2981,13 @@
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C129" s="10">
         <v>43218</v>
@@ -3006,7 +3003,7 @@
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C130" s="10">
         <v>43219</v>
@@ -3022,7 +3019,7 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C131" s="10">
         <v>43219</v>
@@ -3038,7 +3035,7 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C132" s="10">
         <v>43219</v>
@@ -3062,7 +3059,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C134" s="10">
         <v>43220</v>
@@ -3072,13 +3069,13 @@
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">

--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah\Desktop\Health-life-app1\Lap1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mennah\Documents\GitHub\Health-life-app\Lap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,6 +1063,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1081,6 +1082,9 @@
       <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1099,6 +1103,9 @@
       <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1117,6 +1124,9 @@
       <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1135,6 +1145,9 @@
       <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1153,6 +1166,9 @@
       <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1170,6 +1186,9 @@
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
       </c>
       <c r="J14"/>
     </row>
@@ -1180,6 +1199,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1196,8 +1216,11 @@
       <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
@@ -1214,8 +1237,11 @@
       <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>125</v>
@@ -1232,8 +1258,11 @@
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1250,8 +1279,11 @@
       <c r="F19" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
@@ -1268,8 +1300,11 @@
       <c r="F20" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
         <v>27</v>
@@ -1286,8 +1321,11 @@
       <c r="F21" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>25</v>
@@ -1304,8 +1342,11 @@
       <c r="F22" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="8" t="s">
         <v>26</v>
@@ -1322,16 +1363,20 @@
       <c r="F23" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
         <v>124</v>
@@ -1346,8 +1391,11 @@
       <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -1364,8 +1412,11 @@
       <c r="F26" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
         <v>125</v>
@@ -1382,8 +1433,11 @@
       <c r="F27" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
         <v>18</v>
@@ -1400,8 +1454,11 @@
       <c r="F28" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>20</v>
@@ -1418,8 +1475,11 @@
       <c r="F29" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="8" t="s">
         <v>30</v>
@@ -1436,8 +1496,11 @@
       <c r="F30" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="8" t="s">
         <v>28</v>
@@ -1454,8 +1517,11 @@
       <c r="F31" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="8" t="s">
         <v>29</v>
@@ -1471,6 +1537,9 @@
       </c>
       <c r="F32" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1480,6 +1549,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1488,6 +1558,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
@@ -1505,6 +1576,9 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>85</v>
@@ -1530,6 +1604,9 @@
       <c r="F36" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1549,6 +1626,9 @@
       <c r="F37" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1567,6 +1647,9 @@
       <c r="F38" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1585,6 +1668,9 @@
       <c r="F39" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -1603,6 +1689,9 @@
       <c r="F40" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1621,6 +1710,9 @@
       <c r="F41" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1639,6 +1731,9 @@
       <c r="F42" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1657,6 +1752,9 @@
       <c r="F43" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -1674,6 +1772,9 @@
       </c>
       <c r="F44" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1683,6 +1784,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1699,6 +1801,9 @@
       <c r="F46" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -1717,6 +1822,9 @@
       <c r="F47" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -1735,6 +1843,9 @@
       <c r="F48" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -1753,6 +1864,9 @@
       <c r="F49" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -1771,6 +1885,9 @@
       <c r="F50" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -1789,6 +1906,9 @@
       <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -1807,6 +1927,9 @@
       <c r="F52" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -1825,6 +1948,9 @@
       <c r="F53" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -1843,6 +1969,9 @@
       <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1861,6 +1990,9 @@
       <c r="F55" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -1878,6 +2010,9 @@
       </c>
       <c r="F56" s="8" t="s">
         <v>49</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">

--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="127">
   <si>
     <t>sprint No.</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>sketch and wireframe</t>
+  </si>
+  <si>
+    <t>delayed</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +557,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,6 +602,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,8 +1960,8 @@
       <c r="F53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="5">
-        <v>1</v>
+      <c r="G53" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,8 +1981,8 @@
       <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="5">
-        <v>1</v>
+      <c r="G54" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -1990,8 +2002,8 @@
       <c r="F55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="5">
-        <v>1</v>
+      <c r="G55" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2011,8 +2023,8 @@
       <c r="F56" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="5">
-        <v>1</v>
+      <c r="G56" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2039,10 +2051,10 @@
         <v>51</v>
       </c>
       <c r="C59" s="10">
-        <v>43193</v>
+        <v>43201</v>
       </c>
       <c r="D59" s="10">
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
@@ -2061,10 +2073,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="10">
-        <v>43193</v>
+        <v>43201</v>
       </c>
       <c r="D60" s="10">
-        <v>43193</v>
+        <v>43202</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
@@ -2077,10 +2089,10 @@
         <v>125</v>
       </c>
       <c r="C61" s="10">
-        <v>43193</v>
+        <v>43202</v>
       </c>
       <c r="D61" s="10">
-        <v>43194</v>
+        <v>43203</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
@@ -2093,10 +2105,10 @@
         <v>18</v>
       </c>
       <c r="C62" s="10">
-        <v>43194</v>
+        <v>43203</v>
       </c>
       <c r="D62" s="10">
-        <v>43194</v>
+        <v>43203</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
@@ -2109,10 +2121,10 @@
         <v>52</v>
       </c>
       <c r="C63" s="10">
-        <v>43194</v>
+        <v>43203</v>
       </c>
       <c r="D63" s="10">
-        <v>43195</v>
+        <v>43204</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
@@ -2125,10 +2137,10 @@
         <v>53</v>
       </c>
       <c r="C64" s="10">
-        <v>43195</v>
+        <v>43204</v>
       </c>
       <c r="D64" s="10">
-        <v>43195</v>
+        <v>43204</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
@@ -2141,10 +2153,10 @@
         <v>54</v>
       </c>
       <c r="C65" s="10">
-        <v>43195</v>
+        <v>43204</v>
       </c>
       <c r="D65" s="10">
-        <v>43196</v>
+        <v>43205</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
@@ -2157,10 +2169,10 @@
         <v>56</v>
       </c>
       <c r="C66" s="10">
-        <v>43196</v>
+        <v>43205</v>
       </c>
       <c r="D66" s="10">
-        <v>43196</v>
+        <v>43205</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
@@ -2173,10 +2185,10 @@
         <v>59</v>
       </c>
       <c r="C67" s="10">
-        <v>43196</v>
+        <v>43205</v>
       </c>
       <c r="D67" s="10">
-        <v>43197</v>
+        <v>43206</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
@@ -2189,10 +2201,10 @@
         <v>57</v>
       </c>
       <c r="C68" s="10">
-        <v>43197</v>
+        <v>43206</v>
       </c>
       <c r="D68" s="10">
-        <v>43197</v>
+        <v>43206</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
@@ -2205,10 +2217,10 @@
         <v>58</v>
       </c>
       <c r="C69" s="10">
-        <v>43197</v>
+        <v>43206</v>
       </c>
       <c r="D69" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
@@ -2221,10 +2233,10 @@
         <v>55</v>
       </c>
       <c r="C70" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="D70" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
@@ -2237,10 +2249,10 @@
         <v>60</v>
       </c>
       <c r="C71" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="D71" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
@@ -2253,10 +2265,10 @@
         <v>61</v>
       </c>
       <c r="C72" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="D72" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
@@ -2269,10 +2281,10 @@
         <v>62</v>
       </c>
       <c r="C73" s="10">
-        <v>43198</v>
+        <v>43207</v>
       </c>
       <c r="D73" s="10">
-        <v>43199</v>
+        <v>43208</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
@@ -2285,10 +2297,10 @@
         <v>63</v>
       </c>
       <c r="C74" s="10">
-        <v>43199</v>
+        <v>43208</v>
       </c>
       <c r="D74" s="10">
-        <v>43199</v>
+        <v>43208</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
@@ -2301,10 +2313,10 @@
         <v>58</v>
       </c>
       <c r="C75" s="10">
-        <v>43199</v>
+        <v>43208</v>
       </c>
       <c r="D75" s="10">
-        <v>43199</v>
+        <v>43208</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
@@ -2317,10 +2329,10 @@
         <v>64</v>
       </c>
       <c r="C76" s="10">
-        <v>43199</v>
+        <v>43208</v>
       </c>
       <c r="D76" s="10">
-        <v>43200</v>
+        <v>43208</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
@@ -2341,10 +2353,10 @@
         <v>65</v>
       </c>
       <c r="C78" s="10">
-        <v>43200</v>
+        <v>43208</v>
       </c>
       <c r="D78" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
@@ -2357,10 +2369,10 @@
         <v>17</v>
       </c>
       <c r="C79" s="10">
-        <v>43200</v>
+        <v>43208</v>
       </c>
       <c r="D79" s="10">
-        <v>43200</v>
+        <v>43208</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
@@ -2373,10 +2385,10 @@
         <v>125</v>
       </c>
       <c r="C80" s="10">
-        <v>43200</v>
+        <v>43208</v>
       </c>
       <c r="D80" s="10">
-        <v>43201</v>
+        <v>43209</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
@@ -2389,10 +2401,10 @@
         <v>18</v>
       </c>
       <c r="C81" s="10">
-        <v>43201</v>
+        <v>43209</v>
       </c>
       <c r="D81" s="10">
-        <v>43201</v>
+        <v>43209</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
@@ -2405,10 +2417,10 @@
         <v>66</v>
       </c>
       <c r="C82" s="10">
-        <v>43201</v>
+        <v>43209</v>
       </c>
       <c r="D82" s="10">
-        <v>43202</v>
+        <v>43210</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="s">
@@ -2421,10 +2433,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="10">
-        <v>43202</v>
+        <v>43210</v>
       </c>
       <c r="D83" s="10">
-        <v>43202</v>
+        <v>43210</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
@@ -2437,10 +2449,10 @@
         <v>58</v>
       </c>
       <c r="C84" s="10">
-        <v>43202</v>
+        <v>43210</v>
       </c>
       <c r="D84" s="10">
-        <v>43202</v>
+        <v>43210</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
@@ -2453,10 +2465,10 @@
         <v>68</v>
       </c>
       <c r="C85" s="10">
-        <v>43202</v>
+        <v>43210</v>
       </c>
       <c r="D85" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
@@ -2469,10 +2481,10 @@
         <v>69</v>
       </c>
       <c r="C86" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="D86" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="s">
@@ -2485,10 +2497,10 @@
         <v>19</v>
       </c>
       <c r="C87" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="D87" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
@@ -2509,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="C89" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="D89" s="10">
-        <v>43206</v>
+        <v>43214</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
@@ -2525,10 +2537,10 @@
         <v>71</v>
       </c>
       <c r="C90" s="10">
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="D90" s="10">
-        <v>43204</v>
+        <v>43212</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="s">
@@ -2541,10 +2553,10 @@
         <v>72</v>
       </c>
       <c r="C91" s="10">
-        <v>43204</v>
+        <v>43212</v>
       </c>
       <c r="D91" s="10">
-        <v>43204</v>
+        <v>43212</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
@@ -2557,10 +2569,10 @@
         <v>73</v>
       </c>
       <c r="C92" s="10">
-        <v>43204</v>
+        <v>43212</v>
       </c>
       <c r="D92" s="10">
-        <v>43204</v>
+        <v>43212</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
@@ -2573,10 +2585,10 @@
         <v>74</v>
       </c>
       <c r="C93" s="10">
-        <v>43205</v>
+        <v>43213</v>
       </c>
       <c r="D93" s="10">
-        <v>43205</v>
+        <v>43213</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
@@ -2589,10 +2601,10 @@
         <v>75</v>
       </c>
       <c r="C94" s="10">
-        <v>43205</v>
+        <v>43213</v>
       </c>
       <c r="D94" s="10">
-        <v>43206</v>
+        <v>43214</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
@@ -2613,10 +2625,10 @@
         <v>76</v>
       </c>
       <c r="C96" s="10">
-        <v>43206</v>
+        <v>43214</v>
       </c>
       <c r="D96" s="10">
-        <v>43208</v>
+        <v>43216</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
@@ -2629,10 +2641,10 @@
         <v>77</v>
       </c>
       <c r="C97" s="10">
-        <v>43207</v>
+        <v>43215</v>
       </c>
       <c r="D97" s="10">
-        <v>43208</v>
+        <v>43216</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
@@ -2663,10 +2675,10 @@
         <v>87</v>
       </c>
       <c r="C100" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="D100" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
@@ -2685,10 +2697,10 @@
         <v>17</v>
       </c>
       <c r="C101" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="D101" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
@@ -2701,10 +2713,10 @@
         <v>125</v>
       </c>
       <c r="C102" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="D102" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
@@ -2717,10 +2729,10 @@
         <v>18</v>
       </c>
       <c r="C103" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="D103" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="s">
@@ -2733,10 +2745,10 @@
         <v>20</v>
       </c>
       <c r="C104" s="10">
-        <v>43210</v>
+        <v>43218</v>
       </c>
       <c r="D104" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
@@ -2749,10 +2761,10 @@
         <v>88</v>
       </c>
       <c r="C105" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="D105" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
@@ -2765,10 +2777,10 @@
         <v>89</v>
       </c>
       <c r="C106" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="D106" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
@@ -2781,10 +2793,10 @@
         <v>90</v>
       </c>
       <c r="C107" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="D107" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
@@ -2797,10 +2809,10 @@
         <v>91</v>
       </c>
       <c r="C108" s="10">
-        <v>43211</v>
+        <v>43219</v>
       </c>
       <c r="D108" s="10">
-        <v>43212</v>
+        <v>43220</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
@@ -2813,10 +2825,10 @@
         <v>92</v>
       </c>
       <c r="C109" s="10">
-        <v>43212</v>
+        <v>43220</v>
       </c>
       <c r="D109" s="10">
-        <v>43212</v>
+        <v>43220</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
@@ -2829,10 +2841,10 @@
         <v>93</v>
       </c>
       <c r="C110" s="10">
-        <v>43212</v>
+        <v>43220</v>
       </c>
       <c r="D110" s="10">
-        <v>43212</v>
+        <v>43220</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
@@ -2845,10 +2857,10 @@
         <v>94</v>
       </c>
       <c r="C111" s="10">
-        <v>43212</v>
+        <v>43220</v>
       </c>
       <c r="D111" s="10">
-        <v>43213</v>
+        <v>43221</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
@@ -2861,10 +2873,10 @@
         <v>95</v>
       </c>
       <c r="C112" s="10">
-        <v>43213</v>
+        <v>43221</v>
       </c>
       <c r="D112" s="10">
-        <v>43213</v>
+        <v>43221</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
@@ -2877,10 +2889,10 @@
         <v>96</v>
       </c>
       <c r="C113" s="10">
-        <v>43213</v>
+        <v>43221</v>
       </c>
       <c r="D113" s="10">
-        <v>43214</v>
+        <v>43222</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
@@ -2893,10 +2905,10 @@
         <v>97</v>
       </c>
       <c r="C114" s="10">
-        <v>43214</v>
+        <v>43222</v>
       </c>
       <c r="D114" s="10">
-        <v>43214</v>
+        <v>43222</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
@@ -2909,10 +2921,10 @@
         <v>98</v>
       </c>
       <c r="C115" s="10">
-        <v>43214</v>
+        <v>43222</v>
       </c>
       <c r="D115" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
@@ -2933,10 +2945,10 @@
         <v>99</v>
       </c>
       <c r="C117" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="D117" s="10">
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
@@ -2949,10 +2961,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="D118" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
@@ -2965,10 +2977,10 @@
         <v>125</v>
       </c>
       <c r="C119" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="D119" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
@@ -2981,10 +2993,10 @@
         <v>18</v>
       </c>
       <c r="C120" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="D120" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
@@ -2997,10 +3009,10 @@
         <v>20</v>
       </c>
       <c r="C121" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="D121" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
@@ -3013,10 +3025,10 @@
         <v>100</v>
       </c>
       <c r="C122" s="10">
-        <v>43215</v>
+        <v>43223</v>
       </c>
       <c r="D122" s="10">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
@@ -3029,10 +3041,10 @@
         <v>101</v>
       </c>
       <c r="C123" s="10">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="D123" s="10">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8" t="s">
@@ -3045,10 +3057,10 @@
         <v>102</v>
       </c>
       <c r="C124" s="10">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="D124" s="10">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
@@ -3061,10 +3073,10 @@
         <v>103</v>
       </c>
       <c r="C125" s="10">
-        <v>43216</v>
+        <v>43224</v>
       </c>
       <c r="D125" s="10">
-        <v>43217</v>
+        <v>43225</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
@@ -3077,10 +3089,10 @@
         <v>104</v>
       </c>
       <c r="C126" s="10">
-        <v>43217</v>
+        <v>43225</v>
       </c>
       <c r="D126" s="10">
-        <v>43217</v>
+        <v>43225</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
@@ -3093,10 +3105,10 @@
         <v>105</v>
       </c>
       <c r="C127" s="10">
-        <v>43217</v>
+        <v>43225</v>
       </c>
       <c r="D127" s="10">
-        <v>43218</v>
+        <v>43226</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
@@ -3109,10 +3121,10 @@
         <v>106</v>
       </c>
       <c r="C128" s="10">
-        <v>43218</v>
+        <v>43226</v>
       </c>
       <c r="D128" s="10">
-        <v>43218</v>
+        <v>43226</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
@@ -3125,10 +3137,10 @@
         <v>107</v>
       </c>
       <c r="C129" s="10">
-        <v>43218</v>
+        <v>43226</v>
       </c>
       <c r="D129" s="10">
-        <v>43219</v>
+        <v>43227</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
@@ -3141,10 +3153,10 @@
         <v>108</v>
       </c>
       <c r="C130" s="10">
-        <v>43219</v>
+        <v>43227</v>
       </c>
       <c r="D130" s="10">
-        <v>43219</v>
+        <v>43227</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
@@ -3157,10 +3169,10 @@
         <v>109</v>
       </c>
       <c r="C131" s="10">
-        <v>43219</v>
+        <v>43227</v>
       </c>
       <c r="D131" s="10">
-        <v>43219</v>
+        <v>43227</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
@@ -3173,10 +3185,10 @@
         <v>110</v>
       </c>
       <c r="C132" s="10">
-        <v>43219</v>
+        <v>43227</v>
       </c>
       <c r="D132" s="10">
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
@@ -3197,10 +3209,10 @@
         <v>64</v>
       </c>
       <c r="C134" s="10">
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="D134" s="10">
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">

--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mennah\Documents\GitHub\Health-life-app\Lap1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah\Desktop\Health-life-app1\Lap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
   <si>
     <t>sprint No.</t>
   </si>
@@ -598,13 +598,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1573,7 +1573,7 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="8" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="H36"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="8" t="s">
         <v>125</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="F53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       <c r="F55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       <c r="F56" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -2068,7 +2068,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="8" t="s">
         <v>17</v>
       </c>
@@ -2078,13 +2078,15 @@
       <c r="D60" s="10">
         <v>43202</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F60" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="8" t="s">
         <v>125</v>
       </c>
@@ -2094,7 +2096,9 @@
       <c r="D61" s="10">
         <v>43203</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F61" s="8" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2114,9 @@
       <c r="D62" s="10">
         <v>43203</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F62" s="8" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2132,9 @@
       <c r="D63" s="10">
         <v>43204</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F63" s="8" t="s">
         <v>31</v>
       </c>
@@ -2142,7 +2150,9 @@
       <c r="D64" s="10">
         <v>43204</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F64" s="8" t="s">
         <v>23</v>
       </c>
@@ -2158,7 +2168,9 @@
       <c r="D65" s="10">
         <v>43205</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F65" s="8" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2202,9 @@
       <c r="D67" s="10">
         <v>43206</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F67" s="8" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +2220,9 @@
       <c r="D68" s="10">
         <v>43206</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F68" s="8" t="s">
         <v>49</v>
       </c>
@@ -2222,7 +2238,9 @@
       <c r="D69" s="10">
         <v>43207</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F69" s="8" t="s">
         <v>22</v>
       </c>
@@ -2238,7 +2256,9 @@
       <c r="D70" s="10">
         <v>43207</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F70" s="8" t="s">
         <v>23</v>
       </c>
@@ -2254,7 +2274,9 @@
       <c r="D71" s="10">
         <v>43207</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F71" s="8" t="s">
         <v>22</v>
       </c>
@@ -2286,7 +2308,9 @@
       <c r="D73" s="10">
         <v>43208</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F73" s="8" t="s">
         <v>31</v>
       </c>
@@ -2302,7 +2326,9 @@
       <c r="D74" s="10">
         <v>43208</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F74" s="8" t="s">
         <v>49</v>
       </c>
@@ -2318,7 +2344,9 @@
       <c r="D75" s="10">
         <v>43208</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F75" s="8" t="s">
         <v>22</v>
       </c>
@@ -2334,7 +2362,9 @@
       <c r="D76" s="10">
         <v>43208</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F76" s="8" t="s">
         <v>79</v>
       </c>
@@ -2374,7 +2404,9 @@
       <c r="D79" s="10">
         <v>43208</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F79" s="8" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2422,9 @@
       <c r="D80" s="10">
         <v>43209</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F80" s="8" t="s">
         <v>22</v>
       </c>
@@ -2406,7 +2440,9 @@
       <c r="D81" s="10">
         <v>43209</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F81" s="8" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2458,9 @@
       <c r="D82" s="10">
         <v>43210</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F82" s="8" t="s">
         <v>31</v>
       </c>
@@ -2438,7 +2476,9 @@
       <c r="D83" s="10">
         <v>43210</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F83" s="8" t="s">
         <v>79</v>
       </c>
@@ -2454,7 +2494,9 @@
       <c r="D84" s="10">
         <v>43210</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F84" s="8" t="s">
         <v>31</v>
       </c>
@@ -2470,7 +2512,9 @@
       <c r="D85" s="10">
         <v>43211</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F85" s="8" t="s">
         <v>79</v>
       </c>
@@ -2486,7 +2530,9 @@
       <c r="D86" s="10">
         <v>43211</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F86" s="8" t="s">
         <v>81</v>
       </c>
@@ -2502,7 +2548,9 @@
       <c r="D87" s="10">
         <v>43211</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F87" s="8" t="s">
         <v>31</v>
       </c>
@@ -2542,7 +2590,9 @@
       <c r="D90" s="10">
         <v>43212</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F90" s="8" t="s">
         <v>23</v>
       </c>
@@ -2558,7 +2608,9 @@
       <c r="D91" s="10">
         <v>43212</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F91" s="8" t="s">
         <v>22</v>
       </c>
@@ -2574,7 +2626,9 @@
       <c r="D92" s="10">
         <v>43212</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F92" s="8" t="s">
         <v>22</v>
       </c>
@@ -2590,7 +2644,9 @@
       <c r="D93" s="10">
         <v>43213</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F93" s="8" t="s">
         <v>31</v>
       </c>
@@ -2606,7 +2662,9 @@
       <c r="D94" s="10">
         <v>43214</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F94" s="8" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +2688,9 @@
       <c r="D96" s="10">
         <v>43216</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="E96" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F96" s="8" t="s">
         <v>78</v>
       </c>
@@ -2646,7 +2706,9 @@
       <c r="D97" s="10">
         <v>43216</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F97" s="8" t="s">
         <v>32</v>
       </c>
@@ -2668,7 +2730,7 @@
       <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -2692,7 +2754,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="8" t="s">
         <v>17</v>
       </c>
@@ -2708,7 +2770,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="8" t="s">
         <v>125</v>
       </c>

--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah\Desktop\Health-life-app1\Lap1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3rd\recent\SoftwareEng\gitProject\Lap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="126">
   <si>
     <t>sprint No.</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>notification backend imp</t>
-  </si>
-  <si>
-    <t>2days</t>
   </si>
   <si>
     <t>8hrs</t>
@@ -704,6 +701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -739,6 +753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="C89" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -969,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="7">
         <v>43160</v>
@@ -978,7 +1009,7 @@
         <v>43134</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>14</v>
@@ -987,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -1089,7 +1120,7 @@
         <v>43163</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -1244,7 +1275,7 @@
         <v>43163</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>31</v>
@@ -1256,7 +1287,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="9">
         <v>43163</v>
@@ -1265,7 +1296,7 @@
         <v>43163</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -1286,7 +1317,7 @@
         <v>43164</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>31</v>
@@ -1307,7 +1338,7 @@
         <v>43164</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>23</v>
@@ -1328,7 +1359,7 @@
         <v>43164</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>31</v>
@@ -1349,7 +1380,7 @@
         <v>43165</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>23</v>
@@ -1370,7 +1401,7 @@
         <v>43165</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>23</v>
@@ -1391,7 +1422,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="10">
         <v>43165</v>
@@ -1419,7 +1450,7 @@
         <v>43165</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>31</v>
@@ -1431,7 +1462,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="10">
         <v>43165</v>
@@ -1440,7 +1471,7 @@
         <v>43165</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>22</v>
@@ -1461,7 +1492,7 @@
         <v>43166</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>31</v>
@@ -1482,7 +1513,7 @@
         <v>43166</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>23</v>
@@ -1503,7 +1534,7 @@
         <v>43167</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>31</v>
@@ -1524,7 +1555,7 @@
         <v>43167</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>31</v>
@@ -1545,7 +1576,7 @@
         <v>43167</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>23</v>
@@ -1593,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
@@ -1611,7 +1642,7 @@
         <v>43171</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>31</v>
@@ -1624,7 +1655,7 @@
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="10">
         <v>43171</v>
@@ -1633,7 +1664,7 @@
         <v>43171</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>22</v>
@@ -1654,7 +1685,7 @@
         <v>43172</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>48</v>
@@ -1675,7 +1706,7 @@
         <v>43172</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>48</v>
@@ -1696,7 +1727,7 @@
         <v>43173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>23</v>
@@ -1717,7 +1748,7 @@
         <v>43173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>23</v>
@@ -1738,7 +1769,7 @@
         <v>43174</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>31</v>
@@ -1759,7 +1790,7 @@
         <v>43175</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>31</v>
@@ -1780,7 +1811,7 @@
         <v>43176</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>23</v>
@@ -1829,7 +1860,7 @@
         <v>43176</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>31</v>
@@ -1841,7 +1872,7 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="10">
         <v>43176</v>
@@ -1850,7 +1881,7 @@
         <v>43177</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>23</v>
@@ -1871,7 +1902,7 @@
         <v>43177</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>48</v>
@@ -1892,7 +1923,7 @@
         <v>43178</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>49</v>
@@ -1913,7 +1944,7 @@
         <v>43179</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>31</v>
@@ -1934,7 +1965,7 @@
         <v>43180</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>49</v>
@@ -1955,13 +1986,13 @@
         <v>43180</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1976,13 +2007,13 @@
         <v>43182</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -1997,13 +2028,13 @@
         <v>43183</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,13 +2049,13 @@
         <v>43185</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2058,13 +2089,13 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2079,16 +2110,19 @@
         <v>43202</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="10">
         <v>43202</v>
@@ -2097,10 +2131,13 @@
         <v>43203</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2115,10 +2152,13 @@
         <v>43203</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,10 +2173,13 @@
         <v>43204</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2151,13 +2194,16 @@
         <v>43204</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="8" t="s">
         <v>54</v>
@@ -2169,13 +2215,16 @@
         <v>43205</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="8" t="s">
         <v>56</v>
@@ -2190,8 +2239,11 @@
       <c r="F66" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>59</v>
@@ -2203,13 +2255,16 @@
         <v>43206</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="8" t="s">
         <v>57</v>
@@ -2221,13 +2276,16 @@
         <v>43206</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="8" t="s">
         <v>58</v>
@@ -2239,13 +2297,16 @@
         <v>43207</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="8" t="s">
         <v>55</v>
@@ -2257,13 +2318,16 @@
         <v>43207</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -2275,13 +2339,16 @@
         <v>43207</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>61</v>
@@ -2296,8 +2363,11 @@
       <c r="F72" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>62</v>
@@ -2309,13 +2379,16 @@
         <v>43208</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>63</v>
@@ -2327,13 +2400,16 @@
         <v>43208</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="8" t="s">
         <v>58</v>
@@ -2345,13 +2421,16 @@
         <v>43208</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="8" t="s">
         <v>64</v>
@@ -2363,13 +2442,20 @@
         <v>43208</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G76" s="2">
+        <v>8</v>
+      </c>
+      <c r="H76" s="2">
+        <f>SUM(G60:G76)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2377,7 +2463,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>65</v>
@@ -2390,10 +2476,10 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="8" t="s">
         <v>17</v>
@@ -2405,16 +2491,19 @@
         <v>43208</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" s="10">
         <v>43208</v>
@@ -2423,13 +2512,16 @@
         <v>43209</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="8" t="s">
         <v>18</v>
@@ -2441,13 +2533,16 @@
         <v>43209</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>66</v>
@@ -2459,13 +2554,16 @@
         <v>43210</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>67</v>
@@ -2477,13 +2575,16 @@
         <v>43210</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G83" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="8" t="s">
         <v>58</v>
@@ -2495,13 +2596,16 @@
         <v>43210</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="8" t="s">
         <v>68</v>
@@ -2513,13 +2617,16 @@
         <v>43211</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G85" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
         <v>69</v>
@@ -2531,13 +2638,16 @@
         <v>43211</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G86" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>19</v>
@@ -2549,13 +2659,20 @@
         <v>43211</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2">
+        <v>5</v>
+      </c>
+      <c r="H87" s="2">
+        <f>SUM(G79:G87)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2563,7 +2680,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="8" t="s">
         <v>70</v>
@@ -2576,10 +2693,10 @@
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="8" t="s">
         <v>71</v>
@@ -2591,13 +2708,16 @@
         <v>43212</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>72</v>
@@ -2609,13 +2729,16 @@
         <v>43212</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="8" t="s">
         <v>73</v>
@@ -2627,13 +2750,16 @@
         <v>43212</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>74</v>
@@ -2645,13 +2771,16 @@
         <v>43213</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="8" t="s">
         <v>75</v>
@@ -2663,21 +2792,31 @@
         <v>43214</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" s="2">
+        <v>7</v>
+      </c>
+      <c r="I94" s="2">
+        <f>SUM(H90:H96)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>76</v>
@@ -2689,10 +2828,13 @@
         <v>43216</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="F96" s="8">
+        <v>10</v>
+      </c>
+      <c r="H96" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2707,10 +2849,10 @@
         <v>43216</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="F97" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,10 +2873,10 @@
     </row>
     <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="10">
         <v>43218</v>
@@ -2744,13 +2886,13 @@
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2768,11 +2910,14 @@
       <c r="F101" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H101" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="10">
         <v>43218</v>
@@ -2783,6 +2928,9 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="H102" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2800,6 +2948,9 @@
       <c r="F103" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="H103" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -2816,11 +2967,14 @@
       <c r="F104" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="H104" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="10">
         <v>43219</v>
@@ -2832,11 +2986,14 @@
       <c r="F105" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H105" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="10">
         <v>43219</v>
@@ -2848,11 +3005,14 @@
       <c r="F106" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H106" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="10">
         <v>43219</v>
@@ -2864,11 +3024,14 @@
       <c r="F107" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="H107" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="10">
         <v>43219</v>
@@ -2880,11 +3043,14 @@
       <c r="F108" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="H108" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109" s="10">
         <v>43220</v>
@@ -2896,11 +3062,14 @@
       <c r="F109" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="H109" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" s="10">
         <v>43220</v>
@@ -2912,11 +3081,14 @@
       <c r="F110" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="H110" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="10">
         <v>43220</v>
@@ -2928,11 +3100,14 @@
       <c r="F111" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="H111" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="10">
         <v>43221</v>
@@ -2944,11 +3119,14 @@
       <c r="F112" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" s="10">
         <v>43221</v>
@@ -2960,11 +3138,14 @@
       <c r="F113" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="10">
         <v>43222</v>
@@ -2976,11 +3157,14 @@
       <c r="F114" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="10">
         <v>43222</v>
@@ -2992,8 +3176,15 @@
       <c r="F115" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" s="2">
+        <v>3</v>
+      </c>
+      <c r="I115" s="2">
+        <f>SUM(H101:H115)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3001,10 +3192,10 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117" s="10">
         <v>43223</v>
@@ -3014,10 +3205,10 @@
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="8" t="s">
         <v>17</v>
@@ -3032,11 +3223,14 @@
       <c r="F118" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C119" s="10">
         <v>43223</v>
@@ -3048,8 +3242,11 @@
       <c r="F119" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="8" t="s">
         <v>18</v>
@@ -3064,8 +3261,11 @@
       <c r="F120" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="8" t="s">
         <v>20</v>
@@ -3080,11 +3280,14 @@
       <c r="F121" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C122" s="10">
         <v>43223</v>
@@ -3096,11 +3299,14 @@
       <c r="F122" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C123" s="10">
         <v>43224</v>
@@ -3112,11 +3318,14 @@
       <c r="F123" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C124" s="10">
         <v>43224</v>
@@ -3128,11 +3337,14 @@
       <c r="F124" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C125" s="10">
         <v>43224</v>
@@ -3144,11 +3356,14 @@
       <c r="F125" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126" s="10">
         <v>43225</v>
@@ -3160,11 +3375,14 @@
       <c r="F126" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C127" s="10">
         <v>43225</v>
@@ -3176,11 +3394,14 @@
       <c r="F127" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C128" s="10">
         <v>43226</v>
@@ -3192,11 +3413,14 @@
       <c r="F128" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="H128" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C129" s="10">
         <v>43226</v>
@@ -3208,11 +3432,14 @@
       <c r="F129" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="H129" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C130" s="10">
         <v>43227</v>
@@ -3224,11 +3451,14 @@
       <c r="F130" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="H130" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C131" s="10">
         <v>43227</v>
@@ -3240,11 +3470,14 @@
       <c r="F131" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="H131" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C132" s="10">
         <v>43227</v>
@@ -3255,6 +3488,13 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="H132" s="2">
+        <v>2</v>
+      </c>
+      <c r="I132" s="2">
+        <f>SUM(H118:H132)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,7 +3524,7 @@
         <v>32</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">

--- a/Lap1/sprint.xlsx
+++ b/Lap1/sprint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah\Desktop\Health-life-app1\Lap1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mennah\Documents\GitHub\Health-life-app\Lap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,10 +2051,10 @@
         <v>51</v>
       </c>
       <c r="C59" s="10">
-        <v>43201</v>
+        <v>43193</v>
       </c>
       <c r="D59" s="10">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
@@ -2073,10 +2073,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="10">
-        <v>43201</v>
+        <v>43193</v>
       </c>
       <c r="D60" s="10">
-        <v>43202</v>
+        <v>43194</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>122</v>
@@ -2091,10 +2091,10 @@
         <v>125</v>
       </c>
       <c r="C61" s="10">
-        <v>43202</v>
+        <v>43194</v>
       </c>
       <c r="D61" s="10">
-        <v>43203</v>
+        <v>43195</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>118</v>
@@ -2109,10 +2109,10 @@
         <v>18</v>
       </c>
       <c r="C62" s="10">
-        <v>43203</v>
+        <v>43195</v>
       </c>
       <c r="D62" s="10">
-        <v>43203</v>
+        <v>43195</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>117</v>
@@ -2127,10 +2127,10 @@
         <v>52</v>
       </c>
       <c r="C63" s="10">
-        <v>43203</v>
+        <v>43195</v>
       </c>
       <c r="D63" s="10">
-        <v>43204</v>
+        <v>43196</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>117</v>
@@ -2145,10 +2145,10 @@
         <v>53</v>
       </c>
       <c r="C64" s="10">
-        <v>43204</v>
+        <v>43196</v>
       </c>
       <c r="D64" s="10">
-        <v>43204</v>
+        <v>43196</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>118</v>
@@ -2163,10 +2163,10 @@
         <v>54</v>
       </c>
       <c r="C65" s="10">
-        <v>43204</v>
+        <v>43196</v>
       </c>
       <c r="D65" s="10">
-        <v>43205</v>
+        <v>43197</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>118</v>
@@ -2181,10 +2181,10 @@
         <v>56</v>
       </c>
       <c r="C66" s="10">
-        <v>43205</v>
+        <v>43197</v>
       </c>
       <c r="D66" s="10">
-        <v>43205</v>
+        <v>43197</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
@@ -2197,10 +2197,10 @@
         <v>59</v>
       </c>
       <c r="C67" s="10">
-        <v>43205</v>
+        <v>43197</v>
       </c>
       <c r="D67" s="10">
-        <v>43206</v>
+        <v>43198</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>121</v>
@@ -2215,10 +2215,10 @@
         <v>57</v>
       </c>
       <c r="C68" s="10">
-        <v>43206</v>
+        <v>43198</v>
       </c>
       <c r="D68" s="10">
-        <v>43206</v>
+        <v>43198</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>119</v>
@@ -2233,10 +2233,10 @@
         <v>58</v>
       </c>
       <c r="C69" s="10">
-        <v>43206</v>
+        <v>43198</v>
       </c>
       <c r="D69" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>120</v>
@@ -2251,10 +2251,10 @@
         <v>55</v>
       </c>
       <c r="C70" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="D70" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>119</v>
@@ -2269,10 +2269,10 @@
         <v>60</v>
       </c>
       <c r="C71" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="D71" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>122</v>
@@ -2287,10 +2287,10 @@
         <v>61</v>
       </c>
       <c r="C72" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="D72" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
@@ -2303,10 +2303,10 @@
         <v>62</v>
       </c>
       <c r="C73" s="10">
-        <v>43207</v>
+        <v>43199</v>
       </c>
       <c r="D73" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>121</v>
@@ -2321,10 +2321,10 @@
         <v>63</v>
       </c>
       <c r="C74" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="D74" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>117</v>
@@ -2339,10 +2339,10 @@
         <v>58</v>
       </c>
       <c r="C75" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="D75" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>117</v>
@@ -2357,10 +2357,10 @@
         <v>64</v>
       </c>
       <c r="C76" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="D76" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>120</v>
@@ -2383,10 +2383,10 @@
         <v>65</v>
       </c>
       <c r="C78" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="D78" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
@@ -2399,10 +2399,10 @@
         <v>17</v>
       </c>
       <c r="C79" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="D79" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>119</v>
@@ -2417,10 +2417,10 @@
         <v>125</v>
       </c>
       <c r="C80" s="10">
-        <v>43208</v>
+        <v>43200</v>
       </c>
       <c r="D80" s="10">
-        <v>43209</v>
+        <v>43201</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>117</v>
@@ -2435,10 +2435,10 @@
         <v>18</v>
       </c>
       <c r="C81" s="10">
-        <v>43209</v>
+        <v>43201</v>
       </c>
       <c r="D81" s="10">
-        <v>43209</v>
+        <v>43201</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>122</v>
@@ -2453,10 +2453,10 @@
         <v>66</v>
       </c>
       <c r="C82" s="10">
-        <v>43209</v>
+        <v>43201</v>
       </c>
       <c r="D82" s="10">
-        <v>43210</v>
+        <v>43202</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>118</v>
@@ -2471,10 +2471,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="10">
-        <v>43210</v>
+        <v>43202</v>
       </c>
       <c r="D83" s="10">
-        <v>43210</v>
+        <v>43202</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>121</v>
@@ -2489,10 +2489,10 @@
         <v>58</v>
       </c>
       <c r="C84" s="10">
-        <v>43210</v>
+        <v>43202</v>
       </c>
       <c r="D84" s="10">
-        <v>43210</v>
+        <v>43202</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>120</v>
@@ -2507,10 +2507,10 @@
         <v>68</v>
       </c>
       <c r="C85" s="10">
-        <v>43210</v>
+        <v>43202</v>
       </c>
       <c r="D85" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>117</v>
@@ -2525,10 +2525,10 @@
         <v>69</v>
       </c>
       <c r="C86" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="D86" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>120</v>
@@ -2543,10 +2543,10 @@
         <v>19</v>
       </c>
       <c r="C87" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="D87" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>121</v>
@@ -2569,10 +2569,10 @@
         <v>70</v>
       </c>
       <c r="C89" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="D89" s="10">
-        <v>43214</v>
+        <v>43206</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
@@ -2585,10 +2585,10 @@
         <v>71</v>
       </c>
       <c r="C90" s="10">
-        <v>43211</v>
+        <v>43203</v>
       </c>
       <c r="D90" s="10">
-        <v>43212</v>
+        <v>43204</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>119</v>
@@ -2603,10 +2603,10 @@
         <v>72</v>
       </c>
       <c r="C91" s="10">
-        <v>43212</v>
+        <v>43204</v>
       </c>
       <c r="D91" s="10">
-        <v>43212</v>
+        <v>43204</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>120</v>
@@ -2621,10 +2621,10 @@
         <v>73</v>
       </c>
       <c r="C92" s="10">
-        <v>43212</v>
+        <v>43204</v>
       </c>
       <c r="D92" s="10">
-        <v>43212</v>
+        <v>43204</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>122</v>
@@ -2639,10 +2639,10 @@
         <v>74</v>
       </c>
       <c r="C93" s="10">
-        <v>43213</v>
+        <v>43205</v>
       </c>
       <c r="D93" s="10">
-        <v>43213</v>
+        <v>43205</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>121</v>
@@ -2657,10 +2657,10 @@
         <v>75</v>
       </c>
       <c r="C94" s="10">
-        <v>43213</v>
+        <v>43205</v>
       </c>
       <c r="D94" s="10">
-        <v>43214</v>
+        <v>43206</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>118</v>
@@ -2683,10 +2683,10 @@
         <v>76</v>
       </c>
       <c r="C96" s="10">
-        <v>43214</v>
+        <v>43206</v>
       </c>
       <c r="D96" s="10">
-        <v>43216</v>
+        <v>43208</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>120</v>
@@ -2701,10 +2701,10 @@
         <v>77</v>
       </c>
       <c r="C97" s="10">
-        <v>43215</v>
+        <v>43207</v>
       </c>
       <c r="D97" s="10">
-        <v>43216</v>
+        <v>43208</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>118</v>
@@ -2737,10 +2737,10 @@
         <v>87</v>
       </c>
       <c r="C100" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="D100" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
@@ -2759,10 +2759,10 @@
         <v>17</v>
       </c>
       <c r="C101" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="D101" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
@@ -2775,10 +2775,10 @@
         <v>125</v>
       </c>
       <c r="C102" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="D102" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
@@ -2791,10 +2791,10 @@
         <v>18</v>
       </c>
       <c r="C103" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="D103" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="s">
@@ -2807,10 +2807,10 @@
         <v>20</v>
       </c>
       <c r="C104" s="10">
-        <v>43218</v>
+        <v>43210</v>
       </c>
       <c r="D104" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
@@ -2823,10 +2823,10 @@
         <v>88</v>
       </c>
       <c r="C105" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="D105" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
@@ -2839,10 +2839,10 @@
         <v>89</v>
       </c>
       <c r="C106" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="D106" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
@@ -2855,10 +2855,10 @@
         <v>90</v>
       </c>
       <c r="C107" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="D107" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
@@ -2871,10 +2871,10 @@
         <v>91</v>
       </c>
       <c r="C108" s="10">
-        <v>43219</v>
+        <v>43211</v>
       </c>
       <c r="D108" s="10">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
@@ -2887,10 +2887,10 @@
         <v>92</v>
       </c>
       <c r="C109" s="10">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="D109" s="10">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
@@ -2903,10 +2903,10 @@
         <v>93</v>
       </c>
       <c r="C110" s="10">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="D110" s="10">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
@@ -2919,10 +2919,10 @@
         <v>94</v>
       </c>
       <c r="C111" s="10">
-        <v>43220</v>
+        <v>43212</v>
       </c>
       <c r="D111" s="10">
-        <v>43221</v>
+        <v>43213</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
@@ -2935,10 +2935,10 @@
         <v>95</v>
       </c>
       <c r="C112" s="10">
-        <v>43221</v>
+        <v>43213</v>
       </c>
       <c r="D112" s="10">
-        <v>43221</v>
+        <v>43213</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
@@ -2951,10 +2951,10 @@
         <v>96</v>
       </c>
       <c r="C113" s="10">
-        <v>43221</v>
+        <v>43213</v>
       </c>
       <c r="D113" s="10">
-        <v>43222</v>
+        <v>43214</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
@@ -2967,10 +2967,10 @@
         <v>97</v>
       </c>
       <c r="C114" s="10">
-        <v>43222</v>
+        <v>43214</v>
       </c>
       <c r="D114" s="10">
-        <v>43222</v>
+        <v>43214</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
@@ -2983,10 +2983,10 @@
         <v>98</v>
       </c>
       <c r="C115" s="10">
-        <v>43222</v>
+        <v>43214</v>
       </c>
       <c r="D115" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
@@ -3007,10 +3007,10 @@
         <v>99</v>
       </c>
       <c r="C117" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="D117" s="10">
-        <v>43228</v>
+        <v>43220</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
@@ -3023,10 +3023,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="D118" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
@@ -3039,10 +3039,10 @@
         <v>125</v>
       </c>
       <c r="C119" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="D119" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
@@ -3055,10 +3055,10 @@
         <v>18</v>
       </c>
       <c r="C120" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="D120" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
@@ -3071,10 +3071,10 @@
         <v>20</v>
       </c>
       <c r="C121" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="D121" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
@@ -3087,10 +3087,10 @@
         <v>100</v>
       </c>
       <c r="C122" s="10">
-        <v>43223</v>
+        <v>43215</v>
       </c>
       <c r="D122" s="10">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
@@ -3103,10 +3103,10 @@
         <v>101</v>
       </c>
       <c r="C123" s="10">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="D123" s="10">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8" t="s">
@@ -3119,10 +3119,10 @@
         <v>102</v>
       </c>
       <c r="C124" s="10">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="D124" s="10">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
@@ -3135,10 +3135,10 @@
         <v>103</v>
       </c>
       <c r="C125" s="10">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="D125" s="10">
-        <v>43225</v>
+        <v>43217</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
@@ -3151,10 +3151,10 @@
         <v>104</v>
       </c>
       <c r="C126" s="10">
-        <v>43225</v>
+        <v>43217</v>
       </c>
       <c r="D126" s="10">
-        <v>43225</v>
+        <v>43217</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
@@ -3167,10 +3167,10 @@
         <v>105</v>
       </c>
       <c r="C127" s="10">
-        <v>43225</v>
+        <v>43217</v>
       </c>
       <c r="D127" s="10">
-        <v>43226</v>
+        <v>43218</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
@@ -3183,10 +3183,10 @@
         <v>106</v>
       </c>
       <c r="C128" s="10">
-        <v>43226</v>
+        <v>43218</v>
       </c>
       <c r="D128" s="10">
-        <v>43226</v>
+        <v>43218</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
@@ -3199,10 +3199,10 @@
         <v>107</v>
       </c>
       <c r="C129" s="10">
-        <v>43226</v>
+        <v>43218</v>
       </c>
       <c r="D129" s="10">
-        <v>43227</v>
+        <v>43219</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
@@ -3215,10 +3215,10 @@
         <v>108</v>
       </c>
       <c r="C130" s="10">
-        <v>43227</v>
+        <v>43219</v>
       </c>
       <c r="D130" s="10">
-        <v>43227</v>
+        <v>43219</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
@@ -3231,10 +3231,10 @@
         <v>109</v>
       </c>
       <c r="C131" s="10">
-        <v>43227</v>
+        <v>43219</v>
       </c>
       <c r="D131" s="10">
-        <v>43227</v>
+        <v>43219</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
@@ -3247,10 +3247,10 @@
         <v>110</v>
       </c>
       <c r="C132" s="10">
-        <v>43227</v>
+        <v>43219</v>
       </c>
       <c r="D132" s="10">
-        <v>43228</v>
+        <v>43220</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
@@ -3271,10 +3271,10 @@
         <v>64</v>
       </c>
       <c r="C134" s="10">
-        <v>43228</v>
+        <v>43220</v>
       </c>
       <c r="D134" s="10">
-        <v>43228</v>
+        <v>43220</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
